--- a/data/df_account.xlsx
+++ b/data/df_account.xlsx
@@ -1108,10 +1108,10 @@
         <v>40000</v>
       </c>
       <c r="F5">
-        <v>25742.333325</v>
+        <v>25786.833325</v>
       </c>
       <c r="G5">
-        <v>14473.666675</v>
+        <v>14429.166675</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>1411.666666666667</v>
+        <v>1429.166666666667</v>
       </c>
       <c r="BE5">
-        <v>1411.666666666667</v>
+        <v>1429.166666666667</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BH5">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2491.666666666667</v>
+        <v>2536.166666666667</v>
       </c>
       <c r="BK5">
-        <v>2491.666666666667</v>
+        <v>2536.166666666667</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14473.666675</v>
+        <v>14429.166675</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2698.958333333333</v>
+        <v>2714.291666666667</v>
       </c>
       <c r="G6">
-        <v>11774.70834166666</v>
+        <v>11714.87500833333</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BE6">
-        <v>1421.166666666667</v>
+        <v>1452.916666666667</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -1488,25 +1488,25 @@
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BK6">
-        <v>2501.166666666667</v>
+        <v>2559.916666666667</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BN6">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
       <c r="BT6">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -1538,16 +1538,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11774.70834166666</v>
+        <v>11714.87500833333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2698.958333333333</v>
+        <v>2714.291666666667</v>
       </c>
       <c r="G7">
-        <v>9075.750008333333</v>
+        <v>9000.583341666665</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BE7">
-        <v>1430.666666666667</v>
+        <v>1476.666666666667</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -1706,25 +1706,25 @@
         <v>0</v>
       </c>
       <c r="BH7">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BK7">
-        <v>2510.666666666667</v>
+        <v>2583.666666666667</v>
       </c>
       <c r="BL7">
         <v>0</v>
       </c>
       <c r="BM7">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BN7">
-        <v>91</v>
+        <v>93.16666666666666</v>
       </c>
       <c r="BO7">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
       <c r="BT7">
-        <v>406</v>
+        <v>408.1666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9075.750008333333</v>
+        <v>9000.583341666665</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2698.958333333333</v>
+        <v>2714.291666666667</v>
       </c>
       <c r="G8">
-        <v>6376.791674999999</v>
+        <v>6286.291674999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="BD8">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BE8">
-        <v>1440.166666666667</v>
+        <v>1500.416666666667</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>0</v>
       </c>
       <c r="BH8">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI8">
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BK8">
-        <v>2520.166666666667</v>
+        <v>2607.416666666667</v>
       </c>
       <c r="BL8">
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BN8">
-        <v>136.5</v>
+        <v>139.75</v>
       </c>
       <c r="BO8">
         <v>0</v>
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
       <c r="BT8">
-        <v>609</v>
+        <v>612.25</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6376.791674999999</v>
+        <v>6286.291674999999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2698.958333333333</v>
+        <v>2714.291666666667</v>
       </c>
       <c r="G9">
-        <v>3677.833341666666</v>
+        <v>3572.000008333332</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="BD9">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BE9">
-        <v>1449.666666666667</v>
+        <v>1524.166666666667</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -2142,25 +2142,25 @@
         <v>0</v>
       </c>
       <c r="BH9">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BK9">
-        <v>2529.666666666667</v>
+        <v>2631.166666666667</v>
       </c>
       <c r="BL9">
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BN9">
-        <v>182</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="BO9">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
       <c r="BT9">
-        <v>812</v>
+        <v>816.3333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -2192,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3677.833341666666</v>
+        <v>3572.000008333332</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F10">
-        <v>3925.958333333333</v>
+        <v>3941.291666666667</v>
       </c>
       <c r="G10">
-        <v>51.87500833333343</v>
+        <v>30.70834166666555</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>3713.458333333333</v>
       </c>
       <c r="AT10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="AW10">
         <v>0</v>
@@ -2336,22 +2336,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA10">
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>-40300</v>
+        <v>-40400</v>
       </c>
       <c r="BC10">
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BE10">
-        <v>1459.166666666667</v>
+        <v>1547.916666666667</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -2360,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="BH10">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="BK10">
-        <v>2539.166666666667</v>
+        <v>2654.916666666667</v>
       </c>
       <c r="BL10">
         <v>0</v>
       </c>
       <c r="BM10">
-        <v>45.5</v>
+        <v>46.58333333333333</v>
       </c>
       <c r="BN10">
-        <v>227.5</v>
+        <v>232.9166666666666</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>203</v>
+        <v>204.0833333333333</v>
       </c>
       <c r="BT10">
-        <v>1015</v>
+        <v>1020.416666666667</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -2410,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>51.87500833333343</v>
+        <v>30.70834166666555</v>
       </c>
       <c r="E11">
         <v>2700</v>
       </c>
       <c r="F11">
-        <v>2699.958333333333</v>
+        <v>2715.558333333333</v>
       </c>
       <c r="G11">
-        <v>51.9166750000004</v>
+        <v>15.15000833333215</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>-43000</v>
+        <v>-43100</v>
       </c>
       <c r="BC11">
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>9.450000000000001</v>
+        <v>23.58333333333333</v>
       </c>
       <c r="BE11">
-        <v>1468.616666666667</v>
+        <v>1571.5</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -2578,25 +2578,25 @@
         <v>0</v>
       </c>
       <c r="BH11">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>9.450000000000001</v>
+        <v>23.58333333333333</v>
       </c>
       <c r="BK11">
-        <v>2548.616666666667</v>
+        <v>2678.5</v>
       </c>
       <c r="BL11">
         <v>0</v>
       </c>
       <c r="BM11">
-        <v>46.55</v>
+        <v>48.01666666666666</v>
       </c>
       <c r="BN11">
-        <v>274.05</v>
+        <v>280.9333333333333</v>
       </c>
       <c r="BO11">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>204.05</v>
+        <v>205.5166666666667</v>
       </c>
       <c r="BT11">
-        <v>1219.05</v>
+        <v>1225.933333333333</v>
       </c>
     </row>
     <row r="12" spans="1:72">
@@ -2628,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>51.9166750000004</v>
+        <v>15.15000833333215</v>
       </c>
       <c r="E12">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F12">
-        <v>2708.958333333333</v>
+        <v>2724.108333333333</v>
       </c>
       <c r="G12">
-        <v>42.95834166666737</v>
+        <v>91.04167499999903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>2486.458333333333</v>
       </c>
       <c r="AT12">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>-18700</v>
+        <v>-18900</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -2772,22 +2772,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ12">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>-45700</v>
+        <v>-45900</v>
       </c>
       <c r="BC12">
         <v>0</v>
       </c>
       <c r="BD12">
-        <v>9</v>
+        <v>22.45833333333333</v>
       </c>
       <c r="BE12">
-        <v>1477.616666666667</v>
+        <v>1593.958333333333</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -2796,25 +2796,25 @@
         <v>0</v>
       </c>
       <c r="BH12">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>9</v>
+        <v>22.45833333333333</v>
       </c>
       <c r="BK12">
-        <v>2557.616666666667</v>
+        <v>2700.958333333333</v>
       </c>
       <c r="BL12">
         <v>0</v>
       </c>
       <c r="BM12">
-        <v>56</v>
+        <v>57.69166666666666</v>
       </c>
       <c r="BN12">
-        <v>330.05</v>
+        <v>338.6249999999999</v>
       </c>
       <c r="BO12">
         <v>0</v>
@@ -2829,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>213.5</v>
+        <v>215.1916666666667</v>
       </c>
       <c r="BT12">
-        <v>1432.55</v>
+        <v>1441.125</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>42.95834166666737</v>
+        <v>91.04167499999903</v>
       </c>
       <c r="E13">
         <v>2700</v>
       </c>
       <c r="F13">
-        <v>2717.958333333333</v>
+        <v>2732.974999999999</v>
       </c>
       <c r="G13">
-        <v>25.00000833333434</v>
+        <v>58.06667499999958</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>-21400</v>
+        <v>-21600</v>
       </c>
       <c r="AW13">
         <v>0</v>
@@ -2996,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>-48400</v>
+        <v>-48600</v>
       </c>
       <c r="BC13">
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>8.550000000000001</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="BE13">
-        <v>1486.166666666667</v>
+        <v>1615.25</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -3014,25 +3014,25 @@
         <v>0</v>
       </c>
       <c r="BH13">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>8.550000000000001</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="BK13">
-        <v>2566.166666666667</v>
+        <v>2722.25</v>
       </c>
       <c r="BL13">
         <v>0</v>
       </c>
       <c r="BM13">
-        <v>65.45</v>
+        <v>67.72499999999999</v>
       </c>
       <c r="BN13">
-        <v>395.5</v>
+        <v>406.3499999999999</v>
       </c>
       <c r="BO13">
         <v>0</v>
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>222.95</v>
+        <v>225.225</v>
       </c>
       <c r="BT13">
-        <v>1655.5</v>
+        <v>1666.35</v>
       </c>
     </row>
     <row r="14" spans="1:72">
@@ -3064,16 +3064,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>25.00000833333434</v>
+        <v>58.06667499999958</v>
       </c>
       <c r="E14">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F14">
-        <v>2726.958333333333</v>
+        <v>2741.525</v>
       </c>
       <c r="G14">
-        <v>98.04167500000131</v>
+        <v>16.54167499999994</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>2486.458333333333</v>
       </c>
       <c r="AT14">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -3208,22 +3208,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ14">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="BA14">
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>-51200</v>
+        <v>-51300</v>
       </c>
       <c r="BC14">
         <v>0</v>
       </c>
       <c r="BD14">
-        <v>8.1</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="BE14">
-        <v>1494.266666666667</v>
+        <v>1635.416666666667</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="BH14">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>8.1</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="BK14">
-        <v>2574.266666666666</v>
+        <v>2742.416666666667</v>
       </c>
       <c r="BL14">
         <v>0</v>
       </c>
       <c r="BM14">
-        <v>74.90000000000001</v>
+        <v>77.39999999999999</v>
       </c>
       <c r="BN14">
-        <v>470.4</v>
+        <v>483.7499999999999</v>
       </c>
       <c r="BO14">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>232.4</v>
+        <v>234.9</v>
       </c>
       <c r="BT14">
-        <v>1887.9</v>
+        <v>1901.25</v>
       </c>
     </row>
     <row r="15" spans="1:72">
@@ -3282,16 +3282,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>98.04167500000131</v>
+        <v>16.54167499999994</v>
       </c>
       <c r="E15">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F15">
-        <v>2736.291666666666</v>
+        <v>2750.074999999999</v>
       </c>
       <c r="G15">
-        <v>61.75000833333524</v>
+        <v>66.46667500000058</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3408,13 +3408,13 @@
         <v>2486.458333333333</v>
       </c>
       <c r="AT15">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ15">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="BA15">
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>-53900</v>
+        <v>-54100</v>
       </c>
       <c r="BC15">
         <v>0</v>
       </c>
       <c r="BD15">
-        <v>7.633333333333334</v>
+        <v>19.04166666666667</v>
       </c>
       <c r="BE15">
-        <v>1501.9</v>
+        <v>1654.458333333333</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -3450,25 +3450,25 @@
         <v>0</v>
       </c>
       <c r="BH15">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>7.633333333333334</v>
+        <v>19.04166666666667</v>
       </c>
       <c r="BK15">
-        <v>2581.9</v>
+        <v>2761.458333333333</v>
       </c>
       <c r="BL15">
         <v>0</v>
       </c>
       <c r="BM15">
-        <v>84.7</v>
+        <v>87.07499999999999</v>
       </c>
       <c r="BN15">
-        <v>555.1</v>
+        <v>570.8249999999998</v>
       </c>
       <c r="BO15">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>242.2</v>
+        <v>244.575</v>
       </c>
       <c r="BT15">
-        <v>2130.1</v>
+        <v>2145.825</v>
       </c>
     </row>
     <row r="16" spans="1:72">
@@ -3500,16 +3500,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>61.75000833333524</v>
+        <v>66.46667500000058</v>
       </c>
       <c r="E16">
         <v>2700</v>
       </c>
       <c r="F16">
-        <v>2745.291666666667</v>
+        <v>2758.941666666666</v>
       </c>
       <c r="G16">
-        <v>16.45834166666873</v>
+        <v>7.525008333334426</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>-29600</v>
+        <v>-29800</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>-56600</v>
+        <v>-56800</v>
       </c>
       <c r="BC16">
         <v>0</v>
       </c>
       <c r="BD16">
-        <v>7.183333333333334</v>
+        <v>17.875</v>
       </c>
       <c r="BE16">
-        <v>1509.083333333333</v>
+        <v>1672.333333333333</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -3668,25 +3668,25 @@
         <v>0</v>
       </c>
       <c r="BH16">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI16">
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>7.183333333333334</v>
+        <v>17.875</v>
       </c>
       <c r="BK16">
-        <v>2589.083333333333</v>
+        <v>2779.333333333333</v>
       </c>
       <c r="BL16">
         <v>0</v>
       </c>
       <c r="BM16">
-        <v>94.15000000000001</v>
+        <v>97.10833333333332</v>
       </c>
       <c r="BN16">
-        <v>649.25</v>
+        <v>667.9333333333332</v>
       </c>
       <c r="BO16">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>251.65</v>
+        <v>254.6083333333333</v>
       </c>
       <c r="BT16">
-        <v>2381.75</v>
+        <v>2400.433333333333</v>
       </c>
     </row>
     <row r="17" spans="1:72">
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.45834166666873</v>
+        <v>7.525008333334426</v>
       </c>
       <c r="E17">
         <v>2800</v>
       </c>
       <c r="F17">
-        <v>2784.291666666666</v>
+        <v>2797.491666666666</v>
       </c>
       <c r="G17">
-        <v>32.16667500000267</v>
+        <v>10.03334166666809</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>-32400</v>
+        <v>-32600</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3868,16 +3868,16 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>-59400</v>
+        <v>-59600</v>
       </c>
       <c r="BC17">
         <v>0</v>
       </c>
       <c r="BD17">
-        <v>6.733333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="BE17">
-        <v>1515.816666666667</v>
+        <v>1689.083333333333</v>
       </c>
       <c r="BF17">
         <v>0</v>
@@ -3886,25 +3886,25 @@
         <v>0</v>
       </c>
       <c r="BH17">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI17">
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>6.733333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="BK17">
-        <v>2595.816666666667</v>
+        <v>2796.083333333333</v>
       </c>
       <c r="BL17">
         <v>0</v>
       </c>
       <c r="BM17">
-        <v>103.6</v>
+        <v>106.7833333333333</v>
       </c>
       <c r="BN17">
-        <v>752.85</v>
+        <v>774.7166666666665</v>
       </c>
       <c r="BO17">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>261.1</v>
+        <v>264.2833333333333</v>
       </c>
       <c r="BT17">
-        <v>2642.85</v>
+        <v>2664.716666666666</v>
       </c>
     </row>
     <row r="18" spans="1:72">
@@ -3936,16 +3936,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>32.16667500000267</v>
+        <v>10.03334166666809</v>
       </c>
       <c r="E18">
         <v>2800</v>
       </c>
       <c r="F18">
-        <v>2763.625</v>
+        <v>2776.358333333333</v>
       </c>
       <c r="G18">
-        <v>68.54167500000267</v>
+        <v>33.67500833333497</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>-35200</v>
+        <v>-35400</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>-62200</v>
+        <v>-62400</v>
       </c>
       <c r="BC18">
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>6.266666666666667</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="BE18">
-        <v>1522.083333333333</v>
+        <v>1704.666666666667</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="BH18">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI18">
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>6.266666666666667</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="BK18">
-        <v>2602.083333333333</v>
+        <v>2811.666666666667</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>113.4</v>
+        <v>116.8166666666666</v>
       </c>
       <c r="BN18">
-        <v>866.25</v>
+        <v>891.5333333333331</v>
       </c>
       <c r="BO18">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>270.9</v>
+        <v>274.3166666666667</v>
       </c>
       <c r="BT18">
-        <v>2913.75</v>
+        <v>2939.033333333333</v>
       </c>
     </row>
     <row r="19" spans="1:72">
@@ -4154,16 +4154,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>68.54167500000267</v>
+        <v>33.67500833333497</v>
       </c>
       <c r="E19">
         <v>2800</v>
       </c>
       <c r="F19">
-        <v>2772.958333333333</v>
+        <v>2785.224999999999</v>
       </c>
       <c r="G19">
-        <v>95.58334166666964</v>
+        <v>48.45000833333552</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AV19">
-        <v>-38000</v>
+        <v>-38200</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="BC19">
         <v>0</v>
       </c>
       <c r="BD19">
-        <v>5.800000000000001</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="BE19">
-        <v>1527.883333333333</v>
+        <v>1719.083333333333</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -4322,25 +4322,25 @@
         <v>0</v>
       </c>
       <c r="BH19">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>5.800000000000001</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="BK19">
-        <v>2607.883333333333</v>
+        <v>2826.083333333333</v>
       </c>
       <c r="BL19">
         <v>0</v>
       </c>
       <c r="BM19">
-        <v>123.2</v>
+        <v>126.85</v>
       </c>
       <c r="BN19">
-        <v>989.45</v>
+        <v>1018.383333333333</v>
       </c>
       <c r="BO19">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>280.7</v>
+        <v>284.35</v>
       </c>
       <c r="BT19">
-        <v>3194.45</v>
+        <v>3223.383333333333</v>
       </c>
     </row>
     <row r="20" spans="1:72">
@@ -4372,16 +4372,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>95.58334166666964</v>
+        <v>48.45000833333552</v>
       </c>
       <c r="E20">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F20">
-        <v>2782.291666666667</v>
+        <v>2794.091666666666</v>
       </c>
       <c r="G20">
-        <v>13.29167500000312</v>
+        <v>54.35834166666928</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4498,13 +4498,13 @@
         <v>2486.458333333333</v>
       </c>
       <c r="AT20">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AU20">
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>-40700</v>
+        <v>-41000</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -4516,22 +4516,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ20">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>-67700</v>
+        <v>-68000</v>
       </c>
       <c r="BC20">
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>5.333333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="BE20">
-        <v>1533.216666666667</v>
+        <v>1732.333333333333</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4540,25 +4540,25 @@
         <v>0</v>
       </c>
       <c r="BH20">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI20">
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>5.333333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="BK20">
-        <v>2613.216666666667</v>
+        <v>2839.333333333333</v>
       </c>
       <c r="BL20">
         <v>0</v>
       </c>
       <c r="BM20">
-        <v>133</v>
+        <v>136.8833333333333</v>
       </c>
       <c r="BN20">
-        <v>1122.45</v>
+        <v>1155.266666666666</v>
       </c>
       <c r="BO20">
         <v>0</v>
@@ -4573,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>290.5</v>
+        <v>294.3833333333333</v>
       </c>
       <c r="BT20">
-        <v>3484.95</v>
+        <v>3517.766666666666</v>
       </c>
     </row>
     <row r="21" spans="1:72">
@@ -4590,16 +4590,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.29167500000312</v>
+        <v>54.35834166666928</v>
       </c>
       <c r="E21">
         <v>2800</v>
       </c>
       <c r="F21">
-        <v>2791.291666666666</v>
+        <v>2802.958333333333</v>
       </c>
       <c r="G21">
-        <v>22.00000833333706</v>
+        <v>51.40000833333625</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>-43500</v>
+        <v>-43800</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -4740,16 +4740,16 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>-70500</v>
+        <v>-70800</v>
       </c>
       <c r="BC21">
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>4.883333333333334</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="BE21">
-        <v>1538.1</v>
+        <v>1744.416666666667</v>
       </c>
       <c r="BF21">
         <v>0</v>
@@ -4758,25 +4758,25 @@
         <v>0</v>
       </c>
       <c r="BH21">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI21">
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>4.883333333333334</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="BK21">
-        <v>2618.1</v>
+        <v>2851.416666666667</v>
       </c>
       <c r="BL21">
         <v>0</v>
       </c>
       <c r="BM21">
-        <v>142.45</v>
+        <v>146.9166666666667</v>
       </c>
       <c r="BN21">
-        <v>1264.9</v>
+        <v>1302.183333333333</v>
       </c>
       <c r="BO21">
         <v>0</v>
@@ -4791,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>299.95</v>
+        <v>304.4166666666666</v>
       </c>
       <c r="BT21">
-        <v>3784.9</v>
+        <v>3822.183333333333</v>
       </c>
     </row>
     <row r="22" spans="1:72">
@@ -4808,16 +4808,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.00000833333706</v>
+        <v>51.40000833333625</v>
       </c>
       <c r="E22">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F22">
-        <v>4026.625</v>
+        <v>4037.824999999999</v>
       </c>
       <c r="G22">
-        <v>95.37500833333752</v>
+        <v>13.57500833333688</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>3712.458333333333</v>
       </c>
       <c r="AT22">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="AU22">
         <v>0</v>
       </c>
       <c r="AV22">
-        <v>-47600</v>
+        <v>-47800</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -4952,22 +4952,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ22">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="BA22">
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>-74600</v>
+        <v>-74800</v>
       </c>
       <c r="BC22">
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>4.416666666666667</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="BE22">
-        <v>1542.516666666667</v>
+        <v>1755.333333333333</v>
       </c>
       <c r="BF22">
         <v>0</v>
@@ -4976,25 +4976,25 @@
         <v>0</v>
       </c>
       <c r="BH22">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI22">
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>4.416666666666667</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="BK22">
-        <v>2622.516666666667</v>
+        <v>2862.333333333333</v>
       </c>
       <c r="BL22">
         <v>0</v>
       </c>
       <c r="BM22">
-        <v>152.25</v>
+        <v>156.95</v>
       </c>
       <c r="BN22">
-        <v>1417.15</v>
+        <v>1459.133333333333</v>
       </c>
       <c r="BO22">
         <v>0</v>
@@ -5009,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>309.75</v>
+        <v>314.45</v>
       </c>
       <c r="BT22">
-        <v>4094.65</v>
+        <v>4136.633333333333</v>
       </c>
     </row>
     <row r="23" spans="1:72">
@@ -5026,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>95.37500833333752</v>
+        <v>13.57500833333688</v>
       </c>
       <c r="E23">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F23">
-        <v>2814.291666666666</v>
+        <v>2824.491666666666</v>
       </c>
       <c r="G23">
-        <v>81.08334166667146</v>
+        <v>89.08334166667055</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5152,13 +5152,13 @@
         <v>2486.458333333333</v>
       </c>
       <c r="AT23">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AU23">
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>-50400</v>
+        <v>-50700</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -5170,22 +5170,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ23">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="BA23">
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>-77400</v>
+        <v>-77700</v>
       </c>
       <c r="BC23">
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>3.733333333333334</v>
+        <v>9.25</v>
       </c>
       <c r="BE23">
-        <v>1546.25</v>
+        <v>1764.583333333333</v>
       </c>
       <c r="BF23">
         <v>0</v>
@@ -5194,25 +5194,25 @@
         <v>0</v>
       </c>
       <c r="BH23">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI23">
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>3.733333333333334</v>
+        <v>9.25</v>
       </c>
       <c r="BK23">
-        <v>2626.25</v>
+        <v>2871.583333333333</v>
       </c>
       <c r="BL23">
         <v>0</v>
       </c>
       <c r="BM23">
-        <v>166.6</v>
+        <v>171.2833333333333</v>
       </c>
       <c r="BN23">
-        <v>1583.75</v>
+        <v>1630.416666666667</v>
       </c>
       <c r="BO23">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>324.1</v>
+        <v>328.7833333333333</v>
       </c>
       <c r="BT23">
-        <v>4418.75</v>
+        <v>4465.416666666666</v>
       </c>
     </row>
     <row r="24" spans="1:72">
@@ -5244,16 +5244,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>81.08334166667146</v>
+        <v>89.08334166667055</v>
       </c>
       <c r="E24">
         <v>2800</v>
       </c>
       <c r="F24">
-        <v>2823.625</v>
+        <v>2833.675</v>
       </c>
       <c r="G24">
-        <v>57.45834166667146</v>
+        <v>55.40834166667082</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>-53200</v>
+        <v>-53500</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -5394,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>-80200</v>
+        <v>-80500</v>
       </c>
       <c r="BC24">
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>3.266666666666667</v>
+        <v>8.041666666666666</v>
       </c>
       <c r="BE24">
-        <v>1549.516666666667</v>
+        <v>1772.625</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -5412,25 +5412,25 @@
         <v>0</v>
       </c>
       <c r="BH24">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI24">
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>3.266666666666667</v>
+        <v>8.041666666666666</v>
       </c>
       <c r="BK24">
-        <v>2629.516666666667</v>
+        <v>2879.625</v>
       </c>
       <c r="BL24">
         <v>0</v>
       </c>
       <c r="BM24">
-        <v>176.4</v>
+        <v>181.675</v>
       </c>
       <c r="BN24">
-        <v>1760.15</v>
+        <v>1812.091666666666</v>
       </c>
       <c r="BO24">
         <v>0</v>
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>333.9</v>
+        <v>339.175</v>
       </c>
       <c r="BT24">
-        <v>4752.65</v>
+        <v>4804.591666666666</v>
       </c>
     </row>
     <row r="25" spans="1:72">
@@ -5462,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>57.45834166667146</v>
+        <v>55.40834166667082</v>
       </c>
       <c r="E25">
         <v>2800</v>
       </c>
       <c r="F25">
-        <v>2832.958333333333</v>
+        <v>2842.541666666667</v>
       </c>
       <c r="G25">
-        <v>24.50000833333843</v>
+        <v>12.86667500000431</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>-56000</v>
+        <v>-56300</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5612,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>-83000</v>
+        <v>-83300</v>
       </c>
       <c r="BC25">
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>2.8</v>
+        <v>6.875</v>
       </c>
       <c r="BE25">
-        <v>1552.316666666667</v>
+        <v>1779.5</v>
       </c>
       <c r="BF25">
         <v>0</v>
@@ -5630,25 +5630,25 @@
         <v>0</v>
       </c>
       <c r="BH25">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI25">
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>2.8</v>
+        <v>6.875</v>
       </c>
       <c r="BK25">
-        <v>2632.316666666667</v>
+        <v>2886.5</v>
       </c>
       <c r="BL25">
         <v>0</v>
       </c>
       <c r="BM25">
-        <v>186.2</v>
+        <v>191.7083333333333</v>
       </c>
       <c r="BN25">
-        <v>1946.35</v>
+        <v>2003.8</v>
       </c>
       <c r="BO25">
         <v>0</v>
@@ -5663,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>343.7</v>
+        <v>349.2083333333333</v>
       </c>
       <c r="BT25">
-        <v>5096.35</v>
+        <v>5153.799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:72">
@@ -5680,16 +5680,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>24.50000833333843</v>
+        <v>12.86667500000431</v>
       </c>
       <c r="E26">
         <v>4000</v>
       </c>
       <c r="F26">
-        <v>3985.291666666667</v>
+        <v>3994.408333333333</v>
       </c>
       <c r="G26">
-        <v>39.20834166667191</v>
+        <v>18.458341666671</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <v>-60000</v>
+        <v>-60300</v>
       </c>
       <c r="AW26">
         <v>0</v>
@@ -5830,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>-87000</v>
+        <v>-87300</v>
       </c>
       <c r="BC26">
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>2.333333333333333</v>
+        <v>5.708333333333333</v>
       </c>
       <c r="BE26">
-        <v>1554.65</v>
+        <v>1785.208333333333</v>
       </c>
       <c r="BF26">
         <v>0</v>
@@ -5848,25 +5848,25 @@
         <v>0</v>
       </c>
       <c r="BH26">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI26">
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2.333333333333333</v>
+        <v>5.708333333333333</v>
       </c>
       <c r="BK26">
-        <v>2634.65</v>
+        <v>2892.208333333333</v>
       </c>
       <c r="BL26">
         <v>0</v>
       </c>
       <c r="BM26">
-        <v>196</v>
+        <v>201.7416666666666</v>
       </c>
       <c r="BN26">
-        <v>2142.35</v>
+        <v>2205.541666666667</v>
       </c>
       <c r="BO26">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>353.5</v>
+        <v>359.2416666666667</v>
       </c>
       <c r="BT26">
-        <v>5449.85</v>
+        <v>5513.041666666666</v>
       </c>
     </row>
     <row r="27" spans="1:72">
@@ -5898,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>39.20834166667191</v>
+        <v>18.458341666671</v>
       </c>
       <c r="E27">
         <v>2900</v>
       </c>
       <c r="F27">
-        <v>2855.625</v>
+        <v>2864.074999999999</v>
       </c>
       <c r="G27">
-        <v>83.58334166667237</v>
+        <v>54.38334166667164</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>-62900</v>
+        <v>-63200</v>
       </c>
       <c r="AW27">
         <v>0</v>
@@ -6048,16 +6048,16 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>-89900</v>
+        <v>-90200</v>
       </c>
       <c r="BC27">
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>1.666666666666667</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="BE27">
-        <v>1556.316666666667</v>
+        <v>1789.25</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -6066,25 +6066,25 @@
         <v>0</v>
       </c>
       <c r="BH27">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI27">
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>1.666666666666667</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="BK27">
-        <v>2636.316666666667</v>
+        <v>2896.25</v>
       </c>
       <c r="BL27">
         <v>0</v>
       </c>
       <c r="BM27">
-        <v>210</v>
+        <v>216.075</v>
       </c>
       <c r="BN27">
-        <v>2352.35</v>
+        <v>2421.616666666666</v>
       </c>
       <c r="BO27">
         <v>0</v>
@@ -6099,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>367.5</v>
+        <v>373.5749999999999</v>
       </c>
       <c r="BT27">
-        <v>5817.35</v>
+        <v>5886.616666666667</v>
       </c>
     </row>
     <row r="28" spans="1:72">
@@ -6116,16 +6116,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>83.58334166667237</v>
+        <v>54.38334166667164</v>
       </c>
       <c r="E28">
         <v>5700</v>
       </c>
       <c r="F28">
-        <v>5731.291666666666</v>
+        <v>5739.258333333332</v>
       </c>
       <c r="G28">
-        <v>52.29167500000585</v>
+        <v>15.12500833333888</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>-68600</v>
+        <v>-68900</v>
       </c>
       <c r="AW28">
         <v>0</v>
@@ -6266,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>-95600</v>
+        <v>-95900</v>
       </c>
       <c r="BC28">
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>1.183333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="BE28">
-        <v>1557.5</v>
+        <v>1792.083333333333</v>
       </c>
       <c r="BF28">
         <v>0</v>
@@ -6284,25 +6284,25 @@
         <v>0</v>
       </c>
       <c r="BH28">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI28">
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>1.183333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="BK28">
-        <v>2637.5</v>
+        <v>2899.083333333333</v>
       </c>
       <c r="BL28">
         <v>0</v>
       </c>
       <c r="BM28">
-        <v>220.15</v>
+        <v>226.4666666666666</v>
       </c>
       <c r="BN28">
-        <v>2572.5</v>
+        <v>2648.083333333333</v>
       </c>
       <c r="BO28">
         <v>0</v>
@@ -6317,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>377.65</v>
+        <v>383.9666666666666</v>
       </c>
       <c r="BT28">
-        <v>6195</v>
+        <v>6270.583333333333</v>
       </c>
     </row>
     <row r="29" spans="1:72">
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>52.29167500000585</v>
+        <v>15.12500833333888</v>
       </c>
       <c r="E29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F29">
-        <v>427.8333333333333</v>
+        <v>434.85</v>
       </c>
       <c r="G29">
-        <v>24.45834166667254</v>
+        <v>80.27500833333892</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6460,13 +6460,13 @@
         <v>30</v>
       </c>
       <c r="AT29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AU29">
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>-69000</v>
+        <v>-69400</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -6478,22 +6478,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA29">
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>-96000</v>
+        <v>-96400</v>
       </c>
       <c r="BC29">
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.2333333333333334</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="BE29">
-        <v>1557.733333333334</v>
+        <v>1792.541666666667</v>
       </c>
       <c r="BF29">
         <v>0</v>
@@ -6502,25 +6502,25 @@
         <v>0</v>
       </c>
       <c r="BH29">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI29">
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0.2333333333333334</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="BK29">
-        <v>2637.733333333334</v>
+        <v>2899.541666666667</v>
       </c>
       <c r="BL29">
         <v>0</v>
       </c>
       <c r="BM29">
-        <v>240.1</v>
+        <v>246.8916666666666</v>
       </c>
       <c r="BN29">
-        <v>2812.6</v>
+        <v>2894.974999999999</v>
       </c>
       <c r="BO29">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>397.6</v>
+        <v>404.3916666666667</v>
       </c>
       <c r="BT29">
-        <v>6592.6</v>
+        <v>6674.974999999999</v>
       </c>
     </row>
     <row r="30" spans="1:72">
@@ -6552,16 +6552,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>24.45834166667254</v>
+        <v>80.27500833333892</v>
       </c>
       <c r="E30">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F30">
-        <v>429.1666666666667</v>
+        <v>436.4333333333333</v>
       </c>
       <c r="G30">
-        <v>95.29167500000591</v>
+        <v>43.84167500000564</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>30</v>
       </c>
       <c r="AT30">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AU30">
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>-69500</v>
+        <v>-69800</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -6696,22 +6696,22 @@
         <v>-27000</v>
       </c>
       <c r="AZ30">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BA30">
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>-96500</v>
+        <v>-96800</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="BE30">
-        <v>1557.9</v>
+        <v>1792.791666666667</v>
       </c>
       <c r="BF30">
         <v>0</v>
@@ -6720,25 +6720,25 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI30">
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="BK30">
-        <v>2637.900000000001</v>
+        <v>2899.791666666667</v>
       </c>
       <c r="BL30">
         <v>0</v>
       </c>
       <c r="BM30">
-        <v>241.5</v>
+        <v>248.6833333333333</v>
       </c>
       <c r="BN30">
-        <v>3054.1</v>
+        <v>3143.658333333333</v>
       </c>
       <c r="BO30">
         <v>0</v>
@@ -6753,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>399</v>
+        <v>406.1833333333333</v>
       </c>
       <c r="BT30">
-        <v>6991.6</v>
+        <v>7081.158333333333</v>
       </c>
     </row>
     <row r="31" spans="1:72">
@@ -6770,16 +6770,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>95.29167500000591</v>
+        <v>43.84167500000564</v>
       </c>
       <c r="E31">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F31">
-        <v>430.8333333333333</v>
+        <v>437.7</v>
       </c>
       <c r="G31">
-        <v>64.4583416666726</v>
+        <v>-193.8583249999944</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -6896,13 +6896,13 @@
         <v>30</v>
       </c>
       <c r="AT31">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AU31">
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>-69900</v>
+        <v>-70000</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -6914,13 +6914,13 @@
         <v>-27000</v>
       </c>
       <c r="AZ31">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="BA31">
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>-96900</v>
+        <v>-97000</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="BE31">
-        <v>1557.983333333334</v>
+        <v>1792.875</v>
       </c>
       <c r="BF31">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="BH31">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI31">
         <v>0</v>
@@ -6947,16 +6947,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="BK31">
-        <v>2637.983333333334</v>
+        <v>2899.875</v>
       </c>
       <c r="BL31">
         <v>0</v>
       </c>
       <c r="BM31">
-        <v>243.25</v>
+        <v>250.1166666666666</v>
       </c>
       <c r="BN31">
-        <v>3297.35</v>
+        <v>3393.775</v>
       </c>
       <c r="BO31">
         <v>0</v>
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>400.75</v>
+        <v>407.6166666666667</v>
       </c>
       <c r="BT31">
-        <v>7392.35</v>
+        <v>7488.775</v>
       </c>
     </row>
     <row r="32" spans="1:72">
@@ -6988,16 +6988,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>64.4583416666726</v>
+        <v>-193.8583249999944</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>432.1666666666667</v>
+        <v>438.3333333333333</v>
       </c>
       <c r="G32">
-        <v>-267.7083249999941</v>
+        <v>-632.1916583333277</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>30</v>
       </c>
       <c r="AT32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>-27000</v>
       </c>
       <c r="AZ32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA32">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="BD32">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BE32">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -7156,25 +7156,25 @@
         <v>0</v>
       </c>
       <c r="BH32">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI32">
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BK32">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL32">
         <v>0</v>
       </c>
       <c r="BM32">
-        <v>244.65</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="BN32">
-        <v>3542</v>
+        <v>3644.608333333333</v>
       </c>
       <c r="BO32">
         <v>0</v>
@@ -7189,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>402.15</v>
+        <v>408.3333333333333</v>
       </c>
       <c r="BT32">
-        <v>7794.5</v>
+        <v>7897.108333333334</v>
       </c>
     </row>
     <row r="33" spans="1:72">
@@ -7206,16 +7206,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-267.7083249999941</v>
+        <v>-632.1916583333277</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>432.5</v>
+        <v>438.3333333333333</v>
       </c>
       <c r="G33">
-        <v>-700.2083249999941</v>
+        <v>-1070.524991666661</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="BE33">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF33">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="BH33">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI33">
         <v>0</v>
@@ -7383,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="BK33">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL33">
         <v>0</v>
       </c>
       <c r="BM33">
-        <v>245</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="BN33">
-        <v>3787</v>
+        <v>3895.441666666667</v>
       </c>
       <c r="BO33">
         <v>0</v>
@@ -7407,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>402.5</v>
+        <v>408.3333333333333</v>
       </c>
       <c r="BT33">
-        <v>8197</v>
+        <v>8305.441666666666</v>
       </c>
     </row>
     <row r="34" spans="1:72">
@@ -7424,16 +7424,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-700.2083249999941</v>
+        <v>-1070.524991666661</v>
       </c>
       <c r="E34">
         <v>28000</v>
       </c>
       <c r="F34">
-        <v>432.5</v>
+        <v>438.3333333333333</v>
       </c>
       <c r="G34">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="BE34">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF34">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="BH34">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI34">
         <v>0</v>
@@ -7601,16 +7601,16 @@
         <v>0</v>
       </c>
       <c r="BK34">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL34">
         <v>0</v>
       </c>
       <c r="BM34">
-        <v>245</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="BN34">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO34">
         <v>0</v>
@@ -7625,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>402.5</v>
+        <v>408.3333333333333</v>
       </c>
       <c r="BT34">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
     <row r="35" spans="1:72">
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="BE35">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF35">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="BH35">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI35">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="BK35">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL35">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO35">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="BT35">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
     <row r="36" spans="1:72">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="BE36">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF36">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="BH36">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI36">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="BK36">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL36">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO36">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="BT36">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
     <row r="37" spans="1:72">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="BE37">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF37">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="BH37">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI37">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="BK37">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL37">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO37">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="BT37">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
     <row r="38" spans="1:72">
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="BE38">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF38">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="BH38">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI38">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="BK38">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL38">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO38">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="BT38">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
     <row r="39" spans="1:72">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>26867.29167500001</v>
+        <v>26491.14167500001</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -8523,7 +8523,7 @@
         <v>7615</v>
       </c>
       <c r="G39">
-        <v>19252.29167500001</v>
+        <v>18876.14167500001</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="BE39">
-        <v>1558</v>
+        <v>1792.875</v>
       </c>
       <c r="BF39">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="BH39">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="BI39">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="BK39">
-        <v>2638</v>
+        <v>2899.875</v>
       </c>
       <c r="BL39">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>4032</v>
+        <v>4146.275</v>
       </c>
       <c r="BO39">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="BT39">
-        <v>8599.5</v>
+        <v>8713.775</v>
       </c>
     </row>
   </sheetData>
